--- a/data/Subset 1/Video Mosaic Grade 6 2 variables 10.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 6 2 variables 10.xlsx
@@ -473,7 +473,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,7 +496,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -520,7 +520,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -543,7 +543,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -566,7 +566,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -612,7 +612,7 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -658,7 +658,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -797,7 +797,7 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -982,7 +982,7 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1005,7 +1005,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1028,7 +1028,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1052,7 +1052,7 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1075,7 +1075,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1098,7 +1098,7 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1121,7 +1121,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1145,7 +1145,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1214,7 +1214,7 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1260,7 +1260,7 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1283,7 +1283,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1356,7 +1356,7 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1379,7 +1379,7 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1402,7 +1402,7 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1448,7 +1448,7 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
